--- a/file_exp/results_seg_num.xlsx
+++ b/file_exp/results_seg_num.xlsx
@@ -483,13 +483,13 @@
         <v>106</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9550537634408602</v>
+        <v>0.9470967741935484</v>
       </c>
     </row>
     <row r="3">
@@ -513,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9171014492753623</v>
+        <v>0.927536231884058</v>
       </c>
     </row>
     <row r="4">
@@ -537,13 +537,13 @@
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9281424281424283</v>
+        <v>0.9380094380094381</v>
       </c>
     </row>
     <row r="5">
@@ -570,7 +570,7 @@
         <v>0.8108108108108109</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8760069044879172</v>
+        <v>0.8762945914844649</v>
       </c>
     </row>
     <row r="6">
@@ -591,13 +591,13 @@
         <v>99</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.88</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9738888888888889</v>
       </c>
     </row>
     <row r="7">
@@ -624,7 +624,7 @@
         <v>0.9438202247191011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9562424729024488</v>
+        <v>0.9590525893215576</v>
       </c>
     </row>
     <row r="8">
@@ -651,7 +651,7 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9001436781609196</v>
+        <v>0.9020593869731801</v>
       </c>
     </row>
     <row r="9">
@@ -672,13 +672,13 @@
         <v>101</v>
       </c>
       <c r="E9" t="n">
-        <v>0.95</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9526315789473684</v>
+        <v>0.9510526315789473</v>
       </c>
     </row>
     <row r="10">
@@ -699,10 +699,10 @@
         <v>98</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="G10" t="n">
         <v>0.9621903520208605</v>

--- a/file_exp/results_seg_num.xlsx
+++ b/file_exp/results_seg_num.xlsx
@@ -489,7 +489,7 @@
         <v>0.9152542372881356</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9470967741935484</v>
+        <v>0.9505376344086021</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="G3" t="n">
-        <v>0.927536231884058</v>
+        <v>0.9171014492753624</v>
       </c>
     </row>
     <row r="4">
@@ -537,13 +537,13 @@
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9014084507042254</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9380094380094381</v>
+        <v>0.9328614328614329</v>
       </c>
     </row>
     <row r="5">
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8762945914844649</v>
+        <v>0.8708285385500576</v>
       </c>
     </row>
     <row r="6">
@@ -597,7 +597,7 @@
         <v>0.8979591836734694</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9738888888888889</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7">
@@ -624,7 +624,7 @@
         <v>0.9438202247191011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9590525893215576</v>
+        <v>0.9510236852669611</v>
       </c>
     </row>
     <row r="8">
@@ -645,13 +645,13 @@
         <v>101</v>
       </c>
       <c r="E8" t="n">
-        <v>0.96</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9020593869731801</v>
+        <v>0.905411877394636</v>
       </c>
     </row>
     <row r="9">
@@ -678,7 +678,7 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9510526315789473</v>
+        <v>0.9442105263157895</v>
       </c>
     </row>
     <row r="10">
@@ -705,7 +705,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9621903520208605</v>
+        <v>0.9578444154715341</v>
       </c>
     </row>
   </sheetData>
